--- a/data/trans_dic/P41D_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P41D_2023-Dificultad-trans_dic.xlsx
@@ -647,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7653415861337808</v>
+        <v>0.7244117282453139</v>
       </c>
     </row>
     <row r="10">
@@ -668,7 +668,7 @@
         <v>0.1728171458154273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06908847695871384</v>
+        <v>0.06908847695871385</v>
       </c>
     </row>
     <row r="11">
@@ -695,10 +695,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.7061068878762635</v>
+        <v>0.5547750757388287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3795332644410992</v>
+        <v>0.3666630354570222</v>
       </c>
     </row>
     <row r="13">
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.787421766658996</v>
+        <v>0.650318124808144</v>
       </c>
     </row>
     <row r="16">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08907864004972729</v>
+        <v>0.08907864004972728</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.3056370857670518</v>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0956913238435765</v>
+        <v>0.06771678849977691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05840139744656048</v>
+        <v>0.06196749173355762</v>
       </c>
     </row>
     <row r="18">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4449293567574725</v>
+        <v>0.4326676233035622</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6032664253426726</v>
+        <v>0.5777709102159907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3803628276665241</v>
+        <v>0.3872939146200574</v>
       </c>
     </row>
     <row r="19">
@@ -1029,7 +1029,7 @@
         <v>2258</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3504</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="12">
@@ -1094,10 +1094,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>3217</v>
+        <v>2528</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4325</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="16">
@@ -1165,7 +1165,7 @@
         <v>3425</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5647</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="20">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1137</v>
+        <v>804</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1521</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="23">
@@ -1231,13 +1231,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6305</v>
+        <v>6131</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7167</v>
+        <v>6864</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9908</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="24">
